--- a/Test Scenario Template.xlsx
+++ b/Test Scenario Template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FLM13thDec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\009LiveTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71026C43-1F3C-454B-8535-840ADCC57659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB0C95-837F-4D65-89B4-D838381D25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53FC4BEA-8F91-4E79-BF52-DCF5852BF4C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{53FC4BEA-8F91-4E79-BF52-DCF5852BF4C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scenarios for Adactin" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scenarios for Facebook" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -85,13 +86,100 @@
   </si>
   <si>
     <t>Very High</t>
+  </si>
+  <si>
+    <t>R1.2</t>
+  </si>
+  <si>
+    <t>Forgot password functionailty</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Adactin_LoginPage_ForgotPassword_TS001</t>
+  </si>
+  <si>
+    <t>Adactin_LoginPage_Registration _TS001</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>R1.3</t>
+  </si>
+  <si>
+    <t>Registration functionailty</t>
+  </si>
+  <si>
+    <t>Facebook_LoginPage_Login_TS001</t>
+  </si>
+  <si>
+    <t>Login functionality using email</t>
+  </si>
+  <si>
+    <t>Facebook_LoginPage_Login_TS002</t>
+  </si>
+  <si>
+    <t>Login functionality using mobile</t>
+  </si>
+  <si>
+    <t>Facebook_LoginPage_ForgotPassword_TS001</t>
+  </si>
+  <si>
+    <t>Forgot password using email</t>
+  </si>
+  <si>
+    <t>Facebook_LoginPage_ForgotPassword_TS002</t>
+  </si>
+  <si>
+    <t>R1.4</t>
+  </si>
+  <si>
+    <t>Forgot password using mobile</t>
+  </si>
+  <si>
+    <t>Facebook_LoginPage_CreateNewAccount_TS001</t>
+  </si>
+  <si>
+    <t>R1.5</t>
+  </si>
+  <si>
+    <t>Create a New Account Funtionality using Email</t>
+  </si>
+  <si>
+    <t>Facebook_LoginPage_CreateNewAccount_TS002</t>
+  </si>
+  <si>
+    <t>R1.6</t>
+  </si>
+  <si>
+    <t>Create a New Account Funtionality using Mobile</t>
+  </si>
+  <si>
+    <t>Facebook_LoginPage_CreatePage_TS001</t>
+  </si>
+  <si>
+    <t>R1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Page Funtionality for Business or brand  </t>
+  </si>
+  <si>
+    <t>Facebook_LoginPage_CreatePage_TS002</t>
+  </si>
+  <si>
+    <t>R1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a Page Funtionality for Community or public figure </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +190,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,11 +242,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,16 +565,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F7028C-85A9-4F85-B95C-6BAD167F50C0}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="41.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -560,18 +656,38 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
@@ -650,6 +766,261 @@
       <c r="E19" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E262C7-F4D8-4A1A-BF76-19C0A4F941AD}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Scenario Template.xlsx
+++ b/Test Scenario Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\009LiveTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BB0C95-837F-4D65-89B4-D838381D25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0B5AF5-0D45-4D88-AAEE-26D9FD87F419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{53FC4BEA-8F91-4E79-BF52-DCF5852BF4C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53FC4BEA-8F91-4E79-BF52-DCF5852BF4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios for Adactin" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -73,45 +73,27 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Adactin_LoginPage_Login_TS001</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
     <t>R1.1</t>
   </si>
   <si>
-    <t>Login Functionality</t>
-  </si>
-  <si>
     <t>Very High</t>
   </si>
   <si>
     <t>R1.2</t>
   </si>
   <si>
-    <t>Forgot password functionailty</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>Adactin_LoginPage_ForgotPassword_TS001</t>
-  </si>
-  <si>
-    <t>Adactin_LoginPage_Registration _TS001</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
     <t>R1.3</t>
   </si>
   <si>
-    <t>Registration functionailty</t>
-  </si>
-  <si>
     <t>Facebook_LoginPage_Login_TS001</t>
   </si>
   <si>
@@ -173,6 +155,30 @@
   </si>
   <si>
     <t xml:space="preserve">Create a Page Funtionality for Community or public figure </t>
+  </si>
+  <si>
+    <t>AdactinHotelApp</t>
+  </si>
+  <si>
+    <t>Adactin_HomePage_Login_TS001</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>Login using username</t>
+  </si>
+  <si>
+    <t>Adactin_HomePage_Register_TS001</t>
+  </si>
+  <si>
+    <t>Registration functionality</t>
+  </si>
+  <si>
+    <t>Adactin_HomePage_ForgotPassword_TS001</t>
+  </si>
+  <si>
+    <t>Forgot password functionality</t>
   </si>
 </sst>
 </file>
@@ -242,13 +248,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,14 +569,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F7028C-85A9-4F85-B95C-6BAD167F50C0}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
@@ -584,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -640,50 +644,50 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
@@ -776,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E262C7-F4D8-4A1A-BF76-19C0A4F941AD}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -790,198 +794,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.4">
